--- a/02-autodock-vina/13-work/results.xlsx
+++ b/02-autodock-vina/13-work/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\github\bio\docking\02-autodock-vina\13-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E5D55-A9F8-456E-B073-E58EABD02B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92728E87-272E-4269-84FF-C9EA2E056A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VDAC" sheetId="1" r:id="rId1"/>
-    <sheet name="Cyclophilin-D" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="VDAC" sheetId="1" r:id="rId2"/>
+    <sheet name="Cyclophilin-D" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>1_O_galloyl_6_O_bisgalloyl_2_4_valoneyl_B_D_glucose</t>
   </si>
@@ -44,6 +45,12 @@
   </si>
   <si>
     <t>affinity (kcal/mol)</t>
+  </si>
+  <si>
+    <t>VADC</t>
+  </si>
+  <si>
+    <t>Cyclophilin D</t>
   </si>
 </sst>
 </file>
@@ -360,11 +367,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66E9288-1F10-4196-B75B-0C2379EB20A7}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-10.8</v>
+      </c>
+      <c r="C3">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-7.5</v>
+      </c>
+      <c r="C4">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-7.4</v>
+      </c>
+      <c r="C5">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-8.6</v>
+      </c>
+      <c r="C6">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-5.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D9"/>
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,12 +511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F96BFF-F2C1-4E58-A1CE-60C579C02FB8}">
   <dimension ref="C5:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02-autodock-vina/13-work/results.xlsx
+++ b/02-autodock-vina/13-work/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\github\bio\docking\02-autodock-vina\13-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92728E87-272E-4269-84FF-C9EA2E056A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312A3190-CCE0-441A-82C4-18B7C3279C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>1_O_galloyl_6_O_bisgalloyl_2_4_valoneyl_B_D_glucose</t>
   </si>
@@ -47,20 +47,112 @@
     <t>affinity (kcal/mol)</t>
   </si>
   <si>
-    <t>VADC</t>
-  </si>
-  <si>
-    <t>Cyclophilin D</t>
+    <r>
+      <t>PEG (DI(HYDROXYETHYL)ETHER)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MC3 (1,2-DIMYRISTOYL-RAC-GLYCERO-3-PHOSPHOCHOLINE)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PEG (DI(HYDROXYETHYL)ETHER)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retseptorlar bilan birga kelgan moddalar</t>
+    </r>
+  </si>
+  <si>
+    <t>Cyclophilin D (PDBID: 8uc4)</t>
+  </si>
+  <si>
+    <t>VADC (PDBID: 7tcv)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,12 +174,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,82 +491,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66E9288-1F10-4196-B75B-0C2379EB20A7}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-10.8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-7.4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-8.6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-5.2</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-10.8</v>
-      </c>
-      <c r="C3">
-        <v>-9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-7.5</v>
-      </c>
-      <c r="C4">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-7.4</v>
-      </c>
-      <c r="C5">
-        <v>-7.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>-8.6</v>
-      </c>
-      <c r="C6">
-        <v>-6.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-5.2</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -452,7 +611,7 @@
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,47 +621,48 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-10.8</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-7.5</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-7.4</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-8.6</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-5.2</v>
       </c>
     </row>
@@ -513,10 +673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F96BFF-F2C1-4E58-A1CE-60C579C02FB8}">
-  <dimension ref="C5:D9"/>
+  <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D9"/>
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,40 +686,49 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-9.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-7</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-7.1</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>-6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-4.2</v>
       </c>
     </row>
   </sheetData>
